--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_121.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_121.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1502</v>
+        <v>2.1084</v>
       </c>
       <c r="J3" t="n">
-        <v>24.25</v>
+        <v>24.09</v>
       </c>
       <c r="K3" t="n">
-        <v>936.1900000000001</v>
+        <v>911.9400000000001</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>963.0006</v>
+        <v>1019.1213</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.0043</v>
+        <v>1.9589</v>
       </c>
       <c r="J4" t="n">
         <v>1.84</v>
       </c>
       <c r="K4" t="n">
-        <v>66.12</v>
+        <v>64.62</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>872.2599</v>
+        <v>916.6208</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.7315</v>
+        <v>8.454700000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>26.87</v>
+        <v>26.67</v>
       </c>
       <c r="K5" t="n">
-        <v>4211.71</v>
+        <v>4048.06</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.19</v>
+        <v>7.1</v>
       </c>
       <c r="R5" t="n">
-        <v>3615.028</v>
+        <v>3545.1025</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.6058</v>
+        <v>10.2161</v>
       </c>
       <c r="J6" t="n">
-        <v>27.45</v>
+        <v>26.78</v>
       </c>
       <c r="K6" t="n">
-        <v>5226.29</v>
+        <v>4912.16</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.96</v>
+        <v>5.91</v>
       </c>
       <c r="R6" t="n">
-        <v>3074.5675</v>
+        <v>2951.7625</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.847</v>
+        <v>4.684</v>
       </c>
       <c r="J7" t="n">
-        <v>30.82</v>
+        <v>30.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2682.19</v>
+        <v>2602.29</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.95</v>
+        <v>4.24</v>
       </c>
       <c r="R7" t="n">
-        <v>2184.7435</v>
+        <v>2116.7826</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>57.1368</v>
+        <v>55.4311</v>
       </c>
       <c r="J8" t="n">
-        <v>4.28</v>
+        <v>4.08</v>
       </c>
       <c r="K8" t="n">
-        <v>4394.21</v>
+        <v>4058.17</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.720000000000001</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>4294.7043</v>
+        <v>3997.136</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>16.3804</v>
+        <v>17.3328</v>
       </c>
       <c r="J9" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="K9" t="n">
-        <v>578.49</v>
+        <v>573.96</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="R9" t="n">
-        <v>452.8512</v>
+        <v>433.9805</v>
       </c>
     </row>
   </sheetData>
